--- a/data/ASHOKLEY.xlsx
+++ b/data/ASHOKLEY.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13329,6 +13329,84 @@
         <v>16395.5</v>
       </c>
     </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B498">
+        <v>96.2</v>
+      </c>
+      <c r="C498">
+        <v>96.75</v>
+      </c>
+      <c r="D498">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E498">
+        <v>95.34999999999999</v>
+      </c>
+      <c r="F498">
+        <v>95.3</v>
+      </c>
+      <c r="G498">
+        <v>8401454</v>
+      </c>
+      <c r="H498">
+        <v>8014.16</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B499">
+        <v>95.7</v>
+      </c>
+      <c r="C499">
+        <v>95.7</v>
+      </c>
+      <c r="D499">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E499">
+        <v>92.7</v>
+      </c>
+      <c r="F499">
+        <v>92.95</v>
+      </c>
+      <c r="G499">
+        <v>12076962</v>
+      </c>
+      <c r="H499">
+        <v>11253.75</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B500">
+        <v>93.34999999999999</v>
+      </c>
+      <c r="C500">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D500">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E500">
+        <v>91.84999999999999</v>
+      </c>
+      <c r="F500">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="G500">
+        <v>7004255</v>
+      </c>
+      <c r="H500">
+        <v>6468.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
